--- a/pred_ohlcv/54_21/2020-01-21 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 ETH ohlcv.xlsx
@@ -7646,7 +7646,7 @@
         <v>612.7786844477823</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>614.4581844477823</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>569.0405983731632</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>564.3456983731633</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>564.3456983731633</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>446.6019983731633</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>2054.896462355365</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>2054.896462355365</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>2049.409962355365</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>2049.409962355365</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>2053.337462355365</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>2096.959778144839</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>2076.763678144839</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>2076.763678144839</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>2119.638878144839</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>2145.963778144839</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>2137.723778144839</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>2466.02342551326</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>2509.770046565892</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>2486.641855503852</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>2486.641855503852</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>2498.966653136677</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>2498.966653136677</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>2499.891250403957</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>2489.352750403957</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>2516.130864441811</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>2516.130864441811</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>2540.212264441811</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>2588.135047994097</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>2588.135047994097</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>2500.158964441811</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>2532.515000066156</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>2509.111800066155</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>2423.089000066155</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>2373.877500066155</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>2373.877500066155</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>2373.941100066155</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2358.915314690037</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2330.814014690037</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>2330.814014690037</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>2328.943814690037</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>2329.095214690038</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>2364.193914690038</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>2354.618714690037</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>2357.261514690038</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>2357.261514690038</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>2329.980614690037</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>2329.980614690037</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>2343.622114690038</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>2336.143614690037</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>2379.649914690037</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>2380.480614690037</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>2380.480614690037</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>2379.986414690037</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>2379.855614690037</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>2381.480914690037</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>2416.981114690037</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>2440.985714690038</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>2440.985714690038</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>2394.286914690038</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>2394.286914690038</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>2389.504814690038</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>2395.618014690037</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>2395.618014690037</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>2388.550214690038</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>2408.149214690038</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>2205.287314690038</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>2194.412314690038</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>2207.845714690038</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>2185.659714690038</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>2128.458614690038</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>2125.433714690038</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>1880.709814690038</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>1795.885814690038</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-1954.675550511521</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-1852.845050511521</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-1869.840250511521</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-1671.299190262705</v>
       </c>
       <c r="H1127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-1295.695523106672</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-1321.164923106671</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-1324.247623106671</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-1391.152323106671</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-1377.850423106672</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-1418.283223106672</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-1392.558323106672</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-979.2076914212948</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-1077.171391421295</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-1035.295391421295</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-988.1446914212951</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-994.4878914212951</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 ETH ohlcv.xlsx
@@ -6840,7 +6840,7 @@
         <v>748.5492236319417</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>480.5341559817836</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>494.4861844477825</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>421.0651844477825</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>421.9764844477825</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>404.6907844477824</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>515.6424844477824</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>505.7595844477824</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>507.6615844477824</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>531.9024844477824</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>534.7136844477824</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>514.1417844477824</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>495.9717844477823</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>495.9717844477823</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>496.0551844477823</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>496.0551844477823</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>506.5195844477823</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>515.6524844477823</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>510.4379844477823</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>510.4379844477823</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>690.2565844477823</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>691.8565844477823</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>612.7786844477823</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>614.4581844477823</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>569.0405983731632</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>564.3456983731633</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>564.3456983731633</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>564.4940983731633</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>446.6019983731633</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>252.4279983731633</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-220.8598016268367</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-260.0208016268367</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-230.0208016268367</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-257.5208016268367</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-252.3098016268367</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-241.4582016268367</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-259.9453016268367</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-476.9991016268367</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-395.6272016268367</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-410.0287016268367</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-451.3167016268367</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-428.8255016268367</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-428.5258016268368</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-434.7084016268367</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-535.345103138542</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-529.037903138542</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-529.037903138542</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-553.185803138542</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-508.9403533747625</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-532.3761533747625</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-488.5732533747624</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-467.8534533747624</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-423.2927533747624</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-463.4347946745528</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-465.5547946745528</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-465.5547946745528</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-500.8383946745528</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-500.8383946745528</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-754.8785207478512</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-754.8785207478512</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-754.8785207478512</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-648.4056207478512</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-655.9056207478512</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-695.5711207478512</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-744.2777207478512</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-744.2777207478512</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-744.8663207478512</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-638.9970207478513</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-632.1814207478512</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-632.1814207478512</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-674.4370207478512</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-683.866720746968</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-710.741220746968</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-602.8664562334145</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-602.8664562334145</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-619.7411562334145</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-747.0781562334145</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>2054.896462355365</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>2054.896462355365</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>2049.409962355365</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>2049.409962355365</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>2053.337462355365</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>2096.959778144839</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>2076.763678144839</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>2076.763678144839</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>2119.638878144839</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>2145.963778144839</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>2136.374178144839</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>2137.723778144839</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>2162.365678144839</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>2466.02342551326</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>2509.770046565892</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>2486.641855503852</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>2486.641855503852</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>2498.966653136677</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>2498.966653136677</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>2499.891250403957</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>2489.352750403957</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>2516.130864441811</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>2516.130864441811</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>2540.212264441811</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>2588.135047994097</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>2588.135047994097</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>2500.158964441811</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>2532.515000066156</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>2509.111800066155</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>2423.089000066155</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>2373.877500066155</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>2373.877500066155</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>2373.941100066155</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>2356.954314690037</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2358.915314690037</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2330.814014690037</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>2330.814014690037</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>2328.943814690037</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>2329.095214690038</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2329.593914690038</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>2364.193914690038</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>2354.618714690037</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>2357.261514690038</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>2357.261514690038</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>2329.980614690037</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>2329.980614690037</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>2343.622114690038</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>2336.143614690037</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>2379.649914690037</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>2380.480614690037</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>2380.480614690037</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>2379.986414690037</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>2379.855614690037</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>2381.480914690037</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>2416.981114690037</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>2440.985714690038</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>2440.985714690038</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>2394.286914690038</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>2394.286914690038</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>2389.504814690038</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>2395.618014690037</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>2395.618014690037</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>2388.550214690038</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>2408.149214690038</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>2205.287314690038</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>2194.412314690038</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>2185.659714690038</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>2193.341014690038</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>2128.458614690038</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>2125.433714690038</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-1954.675550511521</v>
       </c>
       <c r="H1114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-1852.845050511521</v>
       </c>
       <c r="H1116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-1869.840250511521</v>
       </c>
       <c r="H1117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-1671.299190262705</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-1629.468790262705</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-1295.695523106672</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-1321.164923106671</v>
       </c>
       <c r="H1152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-1324.247623106671</v>
       </c>
       <c r="H1153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-1391.152323106671</v>
       </c>
       <c r="H1154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-1377.850423106672</v>
       </c>
       <c r="H1155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-1418.283223106672</v>
       </c>
       <c r="H1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-1392.558323106672</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-979.2076914212948</v>
       </c>
       <c r="H1164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-986.4687914212949</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-1036.468791421295</v>
       </c>
       <c r="H1170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-1077.171391421295</v>
       </c>
       <c r="H1171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-1076.940891421295</v>
       </c>
       <c r="H1174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-1035.295391421295</v>
       </c>
       <c r="H1175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-988.1446914212951</v>
       </c>
       <c r="H1176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-994.4878914212951</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
